--- a/TFG JUAN MATES/diagrama de gant.xlsx
+++ b/TFG JUAN MATES/diagrama de gant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmates2556\Desktop\2DAW\TFG JUAN MATES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\Juan Matés\CEU\2DAW\TFG JUAN MATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50689CE-E2CE-4F7D-A9F4-ADD307691D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09D7083-4D90-4DB8-976E-A20B380C62D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -123,15 +124,6 @@
     <t>B3: Backend (Spring Boot)</t>
   </si>
   <si>
-    <t>Sprint 1: JPA y Entidades</t>
-  </si>
-  <si>
-    <t>Sprint 2: Geolocalización</t>
-  </si>
-  <si>
-    <t>Sprint 3: Endpoints API</t>
-  </si>
-  <si>
     <t>B4: Frontend y Conexión</t>
   </si>
   <si>
@@ -199,6 +191,15 @@
   </si>
   <si>
     <t>18 semanas de salario</t>
+  </si>
+  <si>
+    <t>JPA y Entidades</t>
+  </si>
+  <si>
+    <t>Geolocalización</t>
+  </si>
+  <si>
+    <t>Endpoints API</t>
   </si>
 </sst>
 </file>
@@ -624,193 +625,193 @@
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,782 +1115,748 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="41"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="6"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="6"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="6"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="6"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="6"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="6"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="42"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G1:T2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
@@ -1913,31 +1880,65 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G1:T2"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1948,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63532D2B-8228-47D5-8BE4-2CF582BB73C1}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1961,100 +1962,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+    </row>
+    <row r="3" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="D3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="52" t="s">
+    </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="B4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="C4" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="D4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="56" t="s">
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="B5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="C5" s="19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="D5" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="63">
+      <c r="D6" s="23">
         <v>8500</v>
       </c>
     </row>
